--- a/target/test-classes/Excel/Data.xlsx
+++ b/target/test-classes/Excel/Data.xlsx
@@ -12,33 +12,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+  <si>
+    <t>THE GREENS - Near Chennai Central Railway Station</t>
+  </si>
+  <si>
+    <t>Scored 8.0</t>
+  </si>
+  <si>
+    <t>₹ 13,200</t>
+  </si>
+  <si>
+    <t>Unlock member-only discounts in this search</t>
+  </si>
+  <si>
+    <t>Scored 6.7</t>
+  </si>
+  <si>
+    <t>₹ 8,524</t>
+  </si>
   <si>
     <t>Hotel Zain Grande</t>
   </si>
   <si>
-    <t>Scored 6.6</t>
-  </si>
-  <si>
-    <t>₹ 2,131</t>
-  </si>
-  <si>
-    <t>Unlock member-only discounts in this search</t>
-  </si>
-  <si>
-    <t>Scored 8.0</t>
-  </si>
-  <si>
-    <t>₹ 3,300</t>
-  </si>
-  <si>
-    <t>THE GREENS - Near Chennai Central Railway Station</t>
-  </si>
-  <si>
     <t>Scored 6.5</t>
   </si>
   <si>
-    <t>₹ 3,800</t>
+    <t>₹ 15,200</t>
   </si>
   <si>
     <t>GRAND ELEGANT</t>
@@ -47,7 +47,7 @@
     <t>Scored 6.8</t>
   </si>
   <si>
-    <t>₹ 3,000</t>
+    <t>₹ 12,000</t>
   </si>
   <si>
     <t>Sri Tirumalaa Hotel</t>
@@ -56,25 +56,31 @@
     <t>Scored 7.2</t>
   </si>
   <si>
-    <t>₹ 1,234</t>
+    <t>₹ 4,936</t>
   </si>
   <si>
     <t>Broad Lands</t>
   </si>
   <si>
-    <t>Scored 6.7</t>
-  </si>
-  <si>
-    <t>₹ 2,769</t>
+    <t>₹ 11,075</t>
   </si>
   <si>
     <t>Zaith Residency Near US Consulate &amp; Apollo hospitals</t>
   </si>
   <si>
+    <t>Scored 7.3</t>
+  </si>
+  <si>
+    <t>₹ 6,400</t>
+  </si>
+  <si>
+    <t>Hotel Ambika Palace</t>
+  </si>
+  <si>
     <t>Scored 5.8</t>
   </si>
   <si>
-    <t>₹ 700</t>
+    <t>₹ 2,800</t>
   </si>
   <si>
     <t>New Regency</t>
@@ -83,7 +89,7 @@
     <t>Scored 6.4</t>
   </si>
   <si>
-    <t>₹ 2,800</t>
+    <t>₹ 12,600</t>
   </si>
   <si>
     <t>K11 Express - Opp Express Avenue</t>
@@ -92,22 +98,46 @@
     <t>Scored 7.6</t>
   </si>
   <si>
-    <t>₹ 1,099</t>
+    <t>₹ 4,396</t>
   </si>
   <si>
     <t>St Xavier always</t>
   </si>
   <si>
-    <t>₹ 2,999</t>
+    <t>₹ 11,996</t>
   </si>
   <si>
     <t>Greams Road Near Apollo Deluxe Fusion Serviced Apartments</t>
   </si>
   <si>
+    <t>₹ 10,660</t>
+  </si>
+  <si>
+    <t>Star Residency</t>
+  </si>
+  <si>
+    <t>Scored 5.6</t>
+  </si>
+  <si>
+    <t>₹ 15,996</t>
+  </si>
+  <si>
+    <t>Good Stay Mount Road Egmore</t>
+  </si>
+  <si>
     <t>Scored 1.0</t>
   </si>
   <si>
-    <t>₹ 1,800</t>
+    <t>₹ 7,840</t>
+  </si>
+  <si>
+    <t>Triplicane Paradise</t>
+  </si>
+  <si>
+    <t>Scored 4.8</t>
+  </si>
+  <si>
+    <t>₹ 7,200</t>
   </si>
   <si>
     <t>Skylink residency</t>
@@ -116,73 +146,40 @@
     <t>Scored 10</t>
   </si>
   <si>
+    <t>₹ 17,200</t>
+  </si>
+  <si>
+    <t>Convastay Gajel- Near Apollo Greams Road</t>
+  </si>
+  <si>
+    <t>Scored 7.4</t>
+  </si>
+  <si>
     <t>Happy stay Nungambakkam</t>
   </si>
   <si>
-    <t>Scored 4.8</t>
-  </si>
-  <si>
-    <t>₹ 3,999</t>
-  </si>
-  <si>
-    <t>Good Stay Mount Road Egmore</t>
-  </si>
-  <si>
-    <t>Scored 7.4</t>
-  </si>
-  <si>
-    <t>₹ 4,300</t>
-  </si>
-  <si>
-    <t>Convastay Gajel- Near Apollo Greams Road</t>
-  </si>
-  <si>
-    <t>₹ 4,860</t>
+    <t>₹ 43,875</t>
+  </si>
+  <si>
+    <t>GOOD STAY Egmore</t>
+  </si>
+  <si>
+    <t>Scored 5.7</t>
+  </si>
+  <si>
+    <t>₹ 19,440</t>
   </si>
   <si>
     <t>SMA Grand inn, Triplicane</t>
   </si>
   <si>
-    <t>₹ 3,510</t>
+    <t>₹ 12,480</t>
   </si>
   <si>
     <t>Aayush Residency</t>
   </si>
   <si>
-    <t>Scored 5.7</t>
-  </si>
-  <si>
-    <t>₹ 1,762</t>
-  </si>
-  <si>
-    <t>NB Inn Palace</t>
-  </si>
-  <si>
-    <t>₹ 6,600</t>
-  </si>
-  <si>
-    <t>Hotel Sunpark</t>
-  </si>
-  <si>
-    <t>₹ 6,500</t>
-  </si>
-  <si>
-    <t>Aac</t>
-  </si>
-  <si>
-    <t>Scored 7.1</t>
-  </si>
-  <si>
-    <t>₹ 4,000</t>
-  </si>
-  <si>
-    <t>Airport PickupBeachChepauk StadiumKitchenWIFI</t>
-  </si>
-  <si>
-    <t>Scored 8.3</t>
-  </si>
-  <si>
-    <t>₹ 6,775</t>
+    <t>₹ 25,080</t>
   </si>
 </sst>
 </file>
@@ -293,51 +290,51 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -348,51 +345,51 @@
         <v>29</v>
       </c>
       <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
         <v>37</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
         <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -403,21 +400,21 @@
         <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -425,7 +422,7 @@
         <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
         <v>48</v>
@@ -436,18 +433,18 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
         <v>53</v>
@@ -458,10 +455,10 @@
         <v>54</v>
       </c>
       <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
         <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
